--- a/RTDataCapture(01).xlsx
+++ b/RTDataCapture(01).xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPTP031\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
@@ -546,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="D5" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
@@ -1583,7 +1588,7 @@
         <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="D69" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
@@ -1823,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="C85" s="2">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="D85" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
@@ -2063,7 +2068,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="D101" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
@@ -2303,7 +2308,7 @@
         <v>23</v>
       </c>
       <c r="C117" s="2">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="D117" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
@@ -2543,7 +2548,7 @@
         <v>24</v>
       </c>
       <c r="C133" s="2">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="D133" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
@@ -2783,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="C149" s="2">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D149" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>

--- a/RTDataCapture(01).xlsx
+++ b/RTDataCapture(01).xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPTP031\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
@@ -551,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +566,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5">
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
       <c r="D1" s="7"/>
     </row>
@@ -587,7 +582,7 @@
       </c>
       <c r="D2" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,7 +597,7 @@
       </c>
       <c r="D3" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -617,7 +612,7 @@
       </c>
       <c r="D4" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,11 +623,11 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D5" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,7 +642,7 @@
       </c>
       <c r="D6" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,7 +657,7 @@
       </c>
       <c r="D7" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +672,7 @@
       </c>
       <c r="D8" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="9" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,7 +687,7 @@
       </c>
       <c r="D9" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,7 +702,7 @@
       </c>
       <c r="D10" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +717,7 @@
       </c>
       <c r="D11" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +732,7 @@
       </c>
       <c r="D12" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +747,7 @@
       </c>
       <c r="D13" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +762,7 @@
       </c>
       <c r="D14" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,7 +777,7 @@
       </c>
       <c r="D15" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,7 +792,7 @@
       </c>
       <c r="D16" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +807,7 @@
       </c>
       <c r="D17" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,7 +822,7 @@
       </c>
       <c r="D18" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +837,7 @@
       </c>
       <c r="D19" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,7 +852,7 @@
       </c>
       <c r="D20" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,11 +863,11 @@
         <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="D21" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -887,7 +882,7 @@
       </c>
       <c r="D22" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,7 +897,7 @@
       </c>
       <c r="D23" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -917,7 +912,7 @@
       </c>
       <c r="D24" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,7 +927,7 @@
       </c>
       <c r="D25" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,7 +942,7 @@
       </c>
       <c r="D26" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,7 +957,7 @@
       </c>
       <c r="D27" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +972,7 @@
       </c>
       <c r="D28" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +987,7 @@
       </c>
       <c r="D29" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1002,7 @@
       </c>
       <c r="D30" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,7 +1017,7 @@
       </c>
       <c r="D31" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,7 +1032,7 @@
       </c>
       <c r="D32" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1047,7 @@
       </c>
       <c r="D33" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1062,7 @@
       </c>
       <c r="D34" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,7 +1077,7 @@
       </c>
       <c r="D35" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,7 +1092,7 @@
       </c>
       <c r="D36" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1108,11 +1103,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="2">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="D37" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1122,7 @@
       </c>
       <c r="D38" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,7 +1137,7 @@
       </c>
       <c r="D39" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1152,7 @@
       </c>
       <c r="D40" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,7 +1167,7 @@
       </c>
       <c r="D41" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,7 +1182,7 @@
       </c>
       <c r="D42" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1197,7 @@
       </c>
       <c r="D43" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1212,7 @@
       </c>
       <c r="D44" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1227,7 @@
       </c>
       <c r="D45" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1242,7 @@
       </c>
       <c r="D46" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,7 +1257,7 @@
       </c>
       <c r="D47" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1272,7 @@
       </c>
       <c r="D48" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1287,7 @@
       </c>
       <c r="D49" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1302,7 @@
       </c>
       <c r="D50" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1317,7 @@
       </c>
       <c r="D51" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1332,7 @@
       </c>
       <c r="D52" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,11 +1343,11 @@
         <v>19</v>
       </c>
       <c r="C53" s="2">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="D53" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1362,7 @@
       </c>
       <c r="D54" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1377,7 @@
       </c>
       <c r="D55" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,7 +1392,7 @@
       </c>
       <c r="D56" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1407,7 @@
       </c>
       <c r="D57" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1422,7 @@
       </c>
       <c r="D58" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1442,7 +1437,7 @@
       </c>
       <c r="D59" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1452,7 @@
       </c>
       <c r="D60" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,7 +1467,7 @@
       </c>
       <c r="D61" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,7 +1482,7 @@
       </c>
       <c r="D62" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,7 +1497,7 @@
       </c>
       <c r="D63" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1512,7 @@
       </c>
       <c r="D64" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,7 +1527,7 @@
       </c>
       <c r="D65" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,7 +1542,7 @@
       </c>
       <c r="D66" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1562,7 +1557,7 @@
       </c>
       <c r="D67" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,7 +1572,7 @@
       </c>
       <c r="D68" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,11 +1583,11 @@
         <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D69" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1602,7 @@
       </c>
       <c r="D70" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,7 +1617,7 @@
       </c>
       <c r="D71" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1632,7 @@
       </c>
       <c r="D72" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1647,7 @@
       </c>
       <c r="D73" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,7 +1662,7 @@
       </c>
       <c r="D74" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1677,7 @@
       </c>
       <c r="D75" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,7 +1692,7 @@
       </c>
       <c r="D76" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1712,7 +1707,7 @@
       </c>
       <c r="D77" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1727,7 +1722,7 @@
       </c>
       <c r="D78" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,7 +1737,7 @@
       </c>
       <c r="D79" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1752,7 @@
       </c>
       <c r="D80" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1767,7 @@
       </c>
       <c r="D81" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,7 +1782,7 @@
       </c>
       <c r="D82" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,7 +1797,7 @@
       </c>
       <c r="D83" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,7 +1812,7 @@
       </c>
       <c r="D84" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,11 +1823,11 @@
         <v>21</v>
       </c>
       <c r="C85" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D85" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,7 +1842,7 @@
       </c>
       <c r="D86" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,7 +1857,7 @@
       </c>
       <c r="D87" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,7 +1872,7 @@
       </c>
       <c r="D88" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1887,7 @@
       </c>
       <c r="D89" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1902,7 @@
       </c>
       <c r="D90" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +1917,7 @@
       </c>
       <c r="D91" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,7 +1932,7 @@
       </c>
       <c r="D92" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,7 +1947,7 @@
       </c>
       <c r="D93" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,7 +1962,7 @@
       </c>
       <c r="D94" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,7 +1977,7 @@
       </c>
       <c r="D95" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,7 +1992,7 @@
       </c>
       <c r="D96" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,7 +2007,7 @@
       </c>
       <c r="D97" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,7 +2022,7 @@
       </c>
       <c r="D98" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,7 +2037,7 @@
       </c>
       <c r="D99" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2052,7 @@
       </c>
       <c r="D100" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,11 +2063,11 @@
         <v>22</v>
       </c>
       <c r="C101" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D101" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2082,7 @@
       </c>
       <c r="D102" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,7 +2097,7 @@
       </c>
       <c r="D103" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,7 +2112,7 @@
       </c>
       <c r="D104" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,7 +2127,7 @@
       </c>
       <c r="D105" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2147,7 +2142,7 @@
       </c>
       <c r="D106" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,7 +2157,7 @@
       </c>
       <c r="D107" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,7 +2172,7 @@
       </c>
       <c r="D108" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,7 +2187,7 @@
       </c>
       <c r="D109" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2202,7 @@
       </c>
       <c r="D110" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,7 +2217,7 @@
       </c>
       <c r="D111" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2232,7 @@
       </c>
       <c r="D112" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,7 +2247,7 @@
       </c>
       <c r="D113" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2263,11 +2258,11 @@
         <v>23</v>
       </c>
       <c r="C114" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D114" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2278,11 +2273,11 @@
         <v>23</v>
       </c>
       <c r="C115" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D115" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,11 +2288,11 @@
         <v>23</v>
       </c>
       <c r="C116" s="2">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D116" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,11 +2303,11 @@
         <v>23</v>
       </c>
       <c r="C117" s="2">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="D117" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,7 +2322,7 @@
       </c>
       <c r="D118" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,11 +2333,11 @@
         <v>23</v>
       </c>
       <c r="C119" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,7 +2352,7 @@
       </c>
       <c r="D120" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,11 +2363,11 @@
         <v>23</v>
       </c>
       <c r="C121" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D121" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,11 +2378,11 @@
         <v>23</v>
       </c>
       <c r="C122" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D122" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,7 +2397,7 @@
       </c>
       <c r="D123" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,7 +2412,7 @@
       </c>
       <c r="D124" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2432,7 +2427,7 @@
       </c>
       <c r="D125" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2447,7 +2442,7 @@
       </c>
       <c r="D126" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2457,7 @@
       </c>
       <c r="D127" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,7 +2472,7 @@
       </c>
       <c r="D128" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2487,7 @@
       </c>
       <c r="D129" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,7 +2502,7 @@
       </c>
       <c r="D130" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2518,11 +2513,11 @@
         <v>24</v>
       </c>
       <c r="C131" s="2">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="D131" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,11 +2528,11 @@
         <v>24</v>
       </c>
       <c r="C132" s="2">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D132" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,11 +2543,11 @@
         <v>24</v>
       </c>
       <c r="C133" s="2">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="D133" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2562,7 @@
       </c>
       <c r="D134" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,11 +2573,11 @@
         <v>24</v>
       </c>
       <c r="C135" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2592,7 @@
       </c>
       <c r="D136" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,11 +2603,11 @@
         <v>24</v>
       </c>
       <c r="C137" s="2">
-        <v>0.13</v>
+        <v>3.32</v>
       </c>
       <c r="D137" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,11 +2618,11 @@
         <v>24</v>
       </c>
       <c r="C138" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D138" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2637,7 @@
       </c>
       <c r="D139" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2657,7 +2652,7 @@
       </c>
       <c r="D140" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2667,7 @@
       </c>
       <c r="D141" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2687,7 +2682,7 @@
       </c>
       <c r="D142" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,7 +2697,7 @@
       </c>
       <c r="D143" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2717,7 +2712,7 @@
       </c>
       <c r="D144" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,7 +2727,7 @@
       </c>
       <c r="D145" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2747,7 +2742,7 @@
       </c>
       <c r="D146" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2758,11 +2753,11 @@
         <v>25</v>
       </c>
       <c r="C147" s="2">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="D147" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2773,11 +2768,11 @@
         <v>25</v>
       </c>
       <c r="C148" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D148" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,11 +2783,11 @@
         <v>25</v>
       </c>
       <c r="C149" s="2">
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="D149" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,7 +2802,7 @@
       </c>
       <c r="D150" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,7 +2817,7 @@
       </c>
       <c r="D151" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2837,7 +2832,7 @@
       </c>
       <c r="D152" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2848,11 +2843,11 @@
         <v>25</v>
       </c>
       <c r="C153" s="2">
-        <v>0.08</v>
+        <v>4.25</v>
       </c>
       <c r="D153" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,11 +2858,11 @@
         <v>25</v>
       </c>
       <c r="C154" s="2">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D154" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2882,7 +2877,7 @@
       </c>
       <c r="D155" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2897,7 +2892,7 @@
       </c>
       <c r="D156" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2912,7 +2907,7 @@
       </c>
       <c r="D157" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2927,7 +2922,7 @@
       </c>
       <c r="D158" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2942,7 +2937,7 @@
       </c>
       <c r="D159" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2957,7 +2952,7 @@
       </c>
       <c r="D160" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2972,7 +2967,7 @@
       </c>
       <c r="D161" s="7">
         <f>LOOKUP(2,1/(B1:C1&lt;&gt;""),B1:C1)</f>
-        <v>45049.375</v>
+        <v>45049.671527777777</v>
       </c>
     </row>
   </sheetData>
